--- a/MainTop/тест 01.02.2025 Таня ВБ/p8.xlsx
+++ b/MainTop/тест 01.02.2025 Таня ВБ/p8.xlsx
@@ -368,7 +368,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -503,6 +503,9 @@
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
